--- a/data/drink_specs.xlsx
+++ b/data/drink_specs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shozendan/Nospare/DrinkSales/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5F112-7620-AD41-B604-9CA9F94A542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D6BB2F-E8D8-DC40-B8E8-220C120D8ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18660" windowHeight="21900" xr2:uid="{88C112FD-0294-D847-9E51-6EAA9779BCF5}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
